--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.56429999999998</v>
+        <v>-20.55739999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-22.01000000000001</v>
+        <v>-21.99750000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>4.813300000000002</v>
+        <v>4.632000000000002</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.026299999999996</v>
+        <v>4.911299999999998</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.67409999999999</v>
+        <v>-21.55749999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.02649999999999</v>
+        <v>-11.98319999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.25420000000001</v>
+        <v>-12.27340000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.1717</v>
+        <v>10.2121</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.0153</v>
+        <v>10.13600000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.084200000000004</v>
+        <v>8.960100000000006</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.0843</v>
+        <v>-22.0834</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.23369999999998</v>
+        <v>-21.30439999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.11659999999998</v>
+        <v>-21.18409999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.643900000000006</v>
+        <v>9.636600000000005</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.8703</v>
+        <v>-12.8089</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.02869999999999</v>
+        <v>-19.95829999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.983200000000003</v>
+        <v>6.058000000000001</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.252600000000004</v>
+        <v>5.116000000000002</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.71029999999999</v>
+        <v>-14.81479999999998</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.879599999999999</v>
+        <v>4.966299999999997</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.33849999999999</v>
+        <v>-13.13409999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.917199999999998</v>
+        <v>5.955400000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.07719999999999</v>
+        <v>-22.07409999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.50130000000001</v>
+        <v>-22.37820000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.442</v>
+        <v>-21.5156</v>
       </c>
       <c r="B66" t="n">
-        <v>5.306599999999996</v>
+        <v>5.514799999999999</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.171299999999999</v>
+        <v>5.190899999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.786500000000007</v>
+        <v>9.722200000000004</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.309000000000001</v>
+        <v>5.557099999999999</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.479299999999997</v>
+        <v>4.681999999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.30089999999999</v>
+        <v>-12.1606</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.234699999999997</v>
+        <v>6.548399999999995</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.6202</v>
+        <v>-12.668</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.0222</v>
+        <v>-22.0006</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
